--- a/biology/Zoologie/Lagerstätte_de_Canjuers/Lagerstätte_de_Canjuers.xlsx
+++ b/biology/Zoologie/Lagerstätte_de_Canjuers/Lagerstätte_de_Canjuers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lagerst%C3%A4tte_de_Canjuers</t>
+          <t>Lagerstätte_de_Canjuers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Lagerstätte de Canjuers est un site paléontologique remarquable avec une conservation exceptionnelle des fossiles (Konservat-Lagerstätte, un « Lagerstätte de conservation »). Il est situé dans le camp militaire de Canjuers, en Haute Provence, dans le département français du Var dans le sud-est de la France[1].
+Le Lagerstätte de Canjuers est un site paléontologique remarquable avec une conservation exceptionnelle des fossiles (Konservat-Lagerstätte, un « Lagerstätte de conservation »). Il est situé dans le camp militaire de Canjuers, en Haute Provence, dans le département français du Var dans le sud-est de la France.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lagerst%C3%A4tte_de_Canjuers</t>
+          <t>Lagerstätte_de_Canjuers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Géologie et stratigraphie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'un point de vue stratigraphique, ce gisement fossilifère se situe au sein de la formation géologique des calcaires blancs de Provence, un ensemble calcaire épais d'environ 200 mètres. Les calcaires lithographiques de Canjuers qui renferment la quasi-totalité des fossiles remarquables du Lagerstätte sont un intervalle très peu épais (environ 6 m), situé à la base du membre supérieur (membre des biomicrites de Sainte-Croix) des calcaires blancs de Provence[2]. Cet intervalle est daté par les ammonites du Tithonien inférieur (biozone à Mucronatum)[3], soit il y a environ 150 Ma (millions d'années).
-Les faciès du site de Canjuers affleurent sur le plateau du Petit Plan de Canjuers et sont creusés de carrières au lieu dit « les Bessons ». Ils correspondent à des dépôts dans une dépression sub-circulaire dont la surface est estimée à seulement 1 km2[1]. Leur épaisseur totale est d'environ 12 m.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'un point de vue stratigraphique, ce gisement fossilifère se situe au sein de la formation géologique des calcaires blancs de Provence, un ensemble calcaire épais d'environ 200 mètres. Les calcaires lithographiques de Canjuers qui renferment la quasi-totalité des fossiles remarquables du Lagerstätte sont un intervalle très peu épais (environ 6 m), situé à la base du membre supérieur (membre des biomicrites de Sainte-Croix) des calcaires blancs de Provence. Cet intervalle est daté par les ammonites du Tithonien inférieur (biozone à Mucronatum), soit il y a environ 150 Ma (millions d'années).
+Les faciès du site de Canjuers affleurent sur le plateau du Petit Plan de Canjuers et sont creusés de carrières au lieu dit « les Bessons ». Ils correspondent à des dépôts dans une dépression sub-circulaire dont la surface est estimée à seulement 1 km2. Leur épaisseur totale est d'environ 12 m.
 Ils se subdivisent en trois unités lithologiques, de bas en haut :
 les calcaires lithographiques au sens strict, constitués de calcaires très fins, finement laminés, épais d'environ 6 m. Ce sont eux qui renferment la quasi-totalité des fossiles exceptionnels du site (Lagerstätte) ;
 les calcaires bioclastiques avec une épaisseur de 4,50 m. Ce sont des calcaires packstones ou grainstones avec des niveaux de nodules de cherts. Leurs bioclastes sont constitués de fragments de coraux, d'oursins, de bivalves, de brachiopodes et d'éponges, avec des terriers et quelques fragments de plantes. Les bancs montrent des surfaces obliques quasi planes ;
-les calcaires sublithographiques avec des niveaux de nodules de cherts, épais de 1,50 m, en bancs épais perforés de terriers attribués à l'ichnotaxon Tubularina lithographica[4].</t>
+les calcaires sublithographiques avec des niveaux de nodules de cherts, épais de 1,50 m, en bancs épais perforés de terriers attribués à l'ichnotaxon Tubularina lithographica.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lagerst%C3%A4tte_de_Canjuers</t>
+          <t>Lagerstätte_de_Canjuers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Paléoenvironnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'environnement de dépôt des calcaires lithographiques est protégé de la mer ouverte de l'océan Téthys par une barrière récifale plus ou moins continue. Les calcaires lithographiques se déposent dans un grand lagon dont différentes parties sont successivement émergées ou submergées, et où émergent de petites îles récifales. Des apports d'eaux météoriques sont vraisemblables[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'environnement de dépôt des calcaires lithographiques est protégé de la mer ouverte de l'océan Téthys par une barrière récifale plus ou moins continue. Les calcaires lithographiques se déposent dans un grand lagon dont différentes parties sont successivement émergées ou submergées, et où émergent de petites îles récifales. Des apports d'eaux météoriques sont vraisemblables.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lagerst%C3%A4tte_de_Canjuers</t>
+          <t>Lagerstätte_de_Canjuers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vertébrés[1]
+          <t>Vertébrés[1]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Poissons à nageoires rayonnées
 Amiiformes
 Caturidae
@@ -642,7 +664,43 @@
 Dinosaures
 Compsognathidae
 Compsognathus longipes Wagner, 1861
-Macro-invertébrés[1]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lagerstätte_de_Canjuers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lagerst%C3%A4tte_de_Canjuers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Paléontologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Macro-invertébrés[1]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Échinodermes
 Oursins
 Cidaroïdes
@@ -703,7 +761,7 @@
 Hibolites sp.
 Crustacés
 Décapodes
-Cycleryon bourseaui Audo, Charbonnier, Schweigert &amp; Saint Martin[5]
+Cycleryon bourseaui Audo, Charbonnier, Schweigert &amp; Saint Martin
 Chélicérates
 Xiphosures
 Kouphichnium lithographicum Oppel, 1862
